--- a/data_sheetscorr.xlsx
+++ b/data_sheetscorr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lploughe/Documents/GitHub/Grassland restoration with biosolids/Grassland-restoration-with-biosolids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607AF54B-5552-A74B-BBF0-BADF9E7BFF1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB9DC22-5C2A-8B43-805D-56A293CE7D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="2680" windowWidth="28800" windowHeight="15020" activeTab="2" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
+    <workbookView xWindow="360" yWindow="2680" windowWidth="28800" windowHeight="15020" activeTab="6" xr2:uid="{BAE652E6-99CF-044B-A16A-4D1DC21C6130}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12943" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12943" uniqueCount="210">
   <si>
     <t>Case</t>
   </si>
@@ -667,6 +667,9 @@
   <si>
     <t>N of plants per m7</t>
   </si>
+  <si>
+    <t>eadville, CO, USA</t>
+  </si>
 </sst>
 </file>
 
@@ -1085,10 +1088,10 @@
   <dimension ref="A1:AJ220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J203" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="Q210" sqref="Q210:R215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3995,10 +3998,10 @@
         <v>18</v>
       </c>
       <c r="Q33">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R33">
-        <v>39.200000000000003</v>
+        <v>44.8</v>
       </c>
       <c r="S33" t="s">
         <v>35</v>
@@ -4022,16 +4025,16 @@
         <v>94</v>
       </c>
       <c r="Z33">
-        <v>50.511940000000003</v>
-      </c>
-      <c r="AA33" s="13">
-        <v>-120.97472</v>
+        <v>50.473109999999998</v>
+      </c>
+      <c r="AA33">
+        <v>-121.0218</v>
       </c>
       <c r="AB33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC33">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
@@ -4084,10 +4087,10 @@
         <v>18</v>
       </c>
       <c r="Q34">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R34">
-        <v>39.200000000000003</v>
+        <v>44.8</v>
       </c>
       <c r="S34" t="s">
         <v>35</v>
@@ -4111,16 +4114,16 @@
         <v>94</v>
       </c>
       <c r="Z34">
-        <v>50.511940000000003</v>
-      </c>
-      <c r="AA34" s="13">
-        <v>-120.97472</v>
+        <v>50.473109999999998</v>
+      </c>
+      <c r="AA34">
+        <v>-121.0218</v>
       </c>
       <c r="AB34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC34">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
@@ -4173,10 +4176,10 @@
         <v>18</v>
       </c>
       <c r="Q35">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R35">
-        <v>39.200000000000003</v>
+        <v>44.8</v>
       </c>
       <c r="S35" t="s">
         <v>35</v>
@@ -4200,16 +4203,16 @@
         <v>94</v>
       </c>
       <c r="Z35">
-        <v>50.511940000000003</v>
-      </c>
-      <c r="AA35" s="13">
-        <v>-120.97472</v>
+        <v>50.473109999999998</v>
+      </c>
+      <c r="AA35">
+        <v>-121.0218</v>
       </c>
       <c r="AB35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC35">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
@@ -4262,10 +4265,10 @@
         <v>18</v>
       </c>
       <c r="Q36">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R36">
-        <v>39.200000000000003</v>
+        <v>44.8</v>
       </c>
       <c r="S36" t="s">
         <v>35</v>
@@ -4289,16 +4292,16 @@
         <v>94</v>
       </c>
       <c r="Z36">
-        <v>50.511940000000003</v>
-      </c>
-      <c r="AA36" s="13">
-        <v>-120.97472</v>
+        <v>50.473109999999998</v>
+      </c>
+      <c r="AA36">
+        <v>-121.0218</v>
       </c>
       <c r="AB36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC36">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
@@ -4351,10 +4354,10 @@
         <v>18</v>
       </c>
       <c r="Q37">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R37">
-        <v>39.200000000000003</v>
+        <v>44.8</v>
       </c>
       <c r="S37" t="s">
         <v>35</v>
@@ -4378,16 +4381,16 @@
         <v>94</v>
       </c>
       <c r="Z37">
-        <v>50.511940000000003</v>
-      </c>
-      <c r="AA37" s="13">
-        <v>-120.97472</v>
+        <v>50.473109999999998</v>
+      </c>
+      <c r="AA37">
+        <v>-121.0218</v>
       </c>
       <c r="AB37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC37">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
@@ -4440,10 +4443,10 @@
         <v>18</v>
       </c>
       <c r="Q38">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R38">
-        <v>39.200000000000003</v>
+        <v>44.8</v>
       </c>
       <c r="S38" t="s">
         <v>35</v>
@@ -4467,16 +4470,16 @@
         <v>94</v>
       </c>
       <c r="Z38">
-        <v>50.511940000000003</v>
-      </c>
-      <c r="AA38" s="13">
-        <v>-120.97472</v>
+        <v>50.473109999999998</v>
+      </c>
+      <c r="AA38">
+        <v>-121.0218</v>
       </c>
       <c r="AB38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC38">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
@@ -4529,10 +4532,10 @@
         <v>18</v>
       </c>
       <c r="Q39">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R39">
-        <v>39.200000000000003</v>
+        <v>44.8</v>
       </c>
       <c r="S39" t="s">
         <v>35</v>
@@ -4556,16 +4559,16 @@
         <v>94</v>
       </c>
       <c r="Z39">
-        <v>50.511940000000003</v>
-      </c>
-      <c r="AA39" s="13">
-        <v>-120.97472</v>
+        <v>50.473109999999998</v>
+      </c>
+      <c r="AA39">
+        <v>-121.0218</v>
       </c>
       <c r="AB39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC39">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
@@ -4618,10 +4621,10 @@
         <v>18</v>
       </c>
       <c r="Q40">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R40">
-        <v>39.200000000000003</v>
+        <v>44.8</v>
       </c>
       <c r="S40" t="s">
         <v>35</v>
@@ -4645,16 +4648,16 @@
         <v>94</v>
       </c>
       <c r="Z40">
-        <v>50.511940000000003</v>
-      </c>
-      <c r="AA40" s="13">
-        <v>-120.97472</v>
+        <v>50.473109999999998</v>
+      </c>
+      <c r="AA40">
+        <v>-121.0218</v>
       </c>
       <c r="AB40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC40">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
@@ -4707,10 +4710,10 @@
         <v>18</v>
       </c>
       <c r="Q41">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R41">
-        <v>39.200000000000003</v>
+        <v>44.8</v>
       </c>
       <c r="S41" t="s">
         <v>35</v>
@@ -4734,16 +4737,16 @@
         <v>94</v>
       </c>
       <c r="Z41">
-        <v>50.511940000000003</v>
-      </c>
-      <c r="AA41" s="13">
-        <v>-120.97472</v>
+        <v>50.473109999999998</v>
+      </c>
+      <c r="AA41">
+        <v>-121.0218</v>
       </c>
       <c r="AB41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC41">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
@@ -4796,10 +4799,10 @@
         <v>18</v>
       </c>
       <c r="Q42">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R42">
-        <v>39.200000000000003</v>
+        <v>44.8</v>
       </c>
       <c r="S42" t="s">
         <v>35</v>
@@ -4823,16 +4826,16 @@
         <v>94</v>
       </c>
       <c r="Z42">
-        <v>50.511940000000003</v>
-      </c>
-      <c r="AA42" s="13">
-        <v>-120.97472</v>
+        <v>50.473109999999998</v>
+      </c>
+      <c r="AA42">
+        <v>-121.0218</v>
       </c>
       <c r="AB42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC42">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
@@ -18756,10 +18759,10 @@
         <v>21</v>
       </c>
       <c r="Q210">
-        <v>26.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="R210">
-        <v>6</v>
+        <v>66.7</v>
       </c>
       <c r="S210" t="s">
         <v>31</v>
@@ -18777,10 +18780,10 @@
         <v>150</v>
       </c>
       <c r="Z210" s="5">
+        <v>50.364505000000001</v>
+      </c>
+      <c r="AA210" s="5">
         <v>18.968959999999999</v>
-      </c>
-      <c r="AA210" s="5">
-        <v>50.364505000000001</v>
       </c>
       <c r="AB210" s="5" t="s">
         <v>29</v>
@@ -18840,10 +18843,10 @@
         <v>21</v>
       </c>
       <c r="Q211">
-        <v>26.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="R211">
-        <v>6</v>
+        <v>66.7</v>
       </c>
       <c r="S211" t="s">
         <v>31</v>
@@ -18861,10 +18864,10 @@
         <v>150</v>
       </c>
       <c r="Z211" s="5">
+        <v>50.364505000000001</v>
+      </c>
+      <c r="AA211" s="5">
         <v>18.968959999999999</v>
-      </c>
-      <c r="AA211" s="5">
-        <v>50.364505000000001</v>
       </c>
       <c r="AB211" s="5" t="s">
         <v>29</v>
@@ -18924,10 +18927,10 @@
         <v>21</v>
       </c>
       <c r="Q212">
-        <v>26.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="R212">
-        <v>6</v>
+        <v>66.7</v>
       </c>
       <c r="S212" t="s">
         <v>29</v>
@@ -18945,10 +18948,10 @@
         <v>150</v>
       </c>
       <c r="Z212" s="5">
+        <v>50.364505000000001</v>
+      </c>
+      <c r="AA212" s="5">
         <v>18.968959999999999</v>
-      </c>
-      <c r="AA212" s="5">
-        <v>50.364505000000001</v>
       </c>
       <c r="AB212" s="5" t="s">
         <v>29</v>
@@ -19008,10 +19011,10 @@
         <v>21</v>
       </c>
       <c r="Q213">
-        <v>26.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="R213">
-        <v>6</v>
+        <v>66.7</v>
       </c>
       <c r="S213" t="s">
         <v>29</v>
@@ -19029,10 +19032,10 @@
         <v>150</v>
       </c>
       <c r="Z213" s="5">
+        <v>50.364505000000001</v>
+      </c>
+      <c r="AA213" s="5">
         <v>18.968959999999999</v>
-      </c>
-      <c r="AA213" s="5">
-        <v>50.364505000000001</v>
       </c>
       <c r="AB213" s="5" t="s">
         <v>29</v>
@@ -19092,10 +19095,10 @@
         <v>21</v>
       </c>
       <c r="Q214">
-        <v>26.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="R214">
-        <v>6</v>
+        <v>66.7</v>
       </c>
       <c r="S214" t="s">
         <v>29</v>
@@ -19113,10 +19116,10 @@
         <v>150</v>
       </c>
       <c r="Z214" s="5">
+        <v>50.364505000000001</v>
+      </c>
+      <c r="AA214" s="5">
         <v>18.968959999999999</v>
-      </c>
-      <c r="AA214" s="5">
-        <v>50.364505000000001</v>
       </c>
       <c r="AB214" s="5" t="s">
         <v>29</v>
@@ -19180,10 +19183,10 @@
         <v>21</v>
       </c>
       <c r="Q215">
-        <v>26.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="R215">
-        <v>6</v>
+        <v>66.7</v>
       </c>
       <c r="S215" t="s">
         <v>29</v>
@@ -19201,10 +19204,10 @@
         <v>150</v>
       </c>
       <c r="Z215" s="5">
+        <v>50.364505000000001</v>
+      </c>
+      <c r="AA215" s="5">
         <v>18.968959999999999</v>
-      </c>
-      <c r="AA215" s="5">
-        <v>50.364505000000001</v>
       </c>
       <c r="AB215" s="5" t="s">
         <v>29</v>
@@ -19246,10 +19249,10 @@
   <dimension ref="A1:AB270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G201" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="O178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K219" sqref="K219:K228"/>
+      <selection pane="bottomRight" activeCell="Q185" sqref="Q185:R185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42032,11 +42035,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD349FBF-19EC-D146-ACA8-683A33E0AFBC}">
   <dimension ref="A1:AB160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J86" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="M145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X102" sqref="X102:X111"/>
+      <selection pane="bottomRight" activeCell="Y154" sqref="Y154:Z154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42752,10 +42755,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W9" t="s">
         <v>31</v>
@@ -42838,10 +42841,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W10" t="s">
         <v>31</v>
@@ -42924,10 +42927,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W11" t="s">
         <v>31</v>
@@ -43010,10 +43013,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W12" t="s">
         <v>31</v>
@@ -43096,10 +43099,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W13" t="s">
         <v>31</v>
@@ -43182,10 +43185,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W14" t="s">
         <v>31</v>
@@ -43268,10 +43271,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W15" t="s">
         <v>31</v>
@@ -43354,10 +43357,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W16" t="s">
         <v>31</v>
@@ -43440,10 +43443,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W17" t="s">
         <v>31</v>
@@ -43526,10 +43529,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W18" t="s">
         <v>31</v>
@@ -46015,7 +46018,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -46024,7 +46027,7 @@
         <v>27</v>
       </c>
       <c r="D50">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E50">
         <v>224</v>
@@ -47573,7 +47576,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T69" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U69" t="s">
         <v>31</v>
@@ -47588,16 +47591,16 @@
         <v>31</v>
       </c>
       <c r="Y69">
-        <v>5.8</v>
+        <v>10.7</v>
       </c>
       <c r="Z69">
-        <v>117</v>
+        <v>95.3</v>
       </c>
       <c r="AA69" t="s">
         <v>31</v>
       </c>
       <c r="AB69">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
@@ -47659,7 +47662,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T70" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U70" t="s">
         <v>31</v>
@@ -47674,16 +47677,16 @@
         <v>31</v>
       </c>
       <c r="Y70">
-        <v>5.8</v>
+        <v>10.7</v>
       </c>
       <c r="Z70">
-        <v>117</v>
+        <v>95.3</v>
       </c>
       <c r="AA70" t="s">
         <v>31</v>
       </c>
       <c r="AB70">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
@@ -47745,7 +47748,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T71" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U71" t="s">
         <v>31</v>
@@ -47760,16 +47763,16 @@
         <v>31</v>
       </c>
       <c r="Y71">
-        <v>5.8</v>
+        <v>10.7</v>
       </c>
       <c r="Z71">
-        <v>117</v>
+        <v>95.3</v>
       </c>
       <c r="AA71" t="s">
         <v>31</v>
       </c>
       <c r="AB71">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
@@ -47831,7 +47834,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T72" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U72" t="s">
         <v>31</v>
@@ -47846,16 +47849,16 @@
         <v>31</v>
       </c>
       <c r="Y72">
-        <v>5.8</v>
+        <v>10.7</v>
       </c>
       <c r="Z72">
-        <v>117</v>
+        <v>95.3</v>
       </c>
       <c r="AA72" t="s">
         <v>31</v>
       </c>
       <c r="AB72">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
@@ -47917,7 +47920,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T73" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U73" t="s">
         <v>31</v>
@@ -47932,16 +47935,16 @@
         <v>31</v>
       </c>
       <c r="Y73">
-        <v>5.8</v>
+        <v>10.7</v>
       </c>
       <c r="Z73">
-        <v>117</v>
+        <v>95.3</v>
       </c>
       <c r="AA73" t="s">
         <v>31</v>
       </c>
       <c r="AB73">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
@@ -48003,7 +48006,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T74" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U74" t="s">
         <v>31</v>
@@ -48018,16 +48021,16 @@
         <v>31</v>
       </c>
       <c r="Y74">
-        <v>5.8</v>
+        <v>10.7</v>
       </c>
       <c r="Z74">
-        <v>117</v>
+        <v>95.3</v>
       </c>
       <c r="AA74" t="s">
         <v>31</v>
       </c>
       <c r="AB74">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
@@ -48089,7 +48092,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T75" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U75" t="s">
         <v>31</v>
@@ -48104,16 +48107,16 @@
         <v>31</v>
       </c>
       <c r="Y75">
-        <v>5.8</v>
+        <v>10.7</v>
       </c>
       <c r="Z75">
-        <v>117</v>
+        <v>95.3</v>
       </c>
       <c r="AA75" t="s">
         <v>31</v>
       </c>
       <c r="AB75">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
@@ -48175,7 +48178,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T76" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U76" t="s">
         <v>31</v>
@@ -48190,16 +48193,16 @@
         <v>31</v>
       </c>
       <c r="Y76">
-        <v>5.8</v>
+        <v>10.7</v>
       </c>
       <c r="Z76">
-        <v>117</v>
+        <v>95.3</v>
       </c>
       <c r="AA76" t="s">
         <v>31</v>
       </c>
       <c r="AB76">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
@@ -48261,7 +48264,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T77" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U77" t="s">
         <v>31</v>
@@ -48276,16 +48279,16 @@
         <v>31</v>
       </c>
       <c r="Y77">
-        <v>5.8</v>
+        <v>10.7</v>
       </c>
       <c r="Z77">
-        <v>117</v>
+        <v>95.3</v>
       </c>
       <c r="AA77" t="s">
         <v>31</v>
       </c>
       <c r="AB77">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
@@ -48347,7 +48350,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T78" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U78" t="s">
         <v>31</v>
@@ -48362,16 +48365,16 @@
         <v>31</v>
       </c>
       <c r="Y78">
-        <v>5.8</v>
+        <v>10.7</v>
       </c>
       <c r="Z78">
-        <v>117</v>
+        <v>95.3</v>
       </c>
       <c r="AA78" t="s">
         <v>31</v>
       </c>
       <c r="AB78">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
@@ -48433,7 +48436,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T79" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U79" t="s">
         <v>31</v>
@@ -48448,16 +48451,16 @@
         <v>31</v>
       </c>
       <c r="Y79">
-        <v>5.8</v>
+        <v>10.7</v>
       </c>
       <c r="Z79">
-        <v>117</v>
+        <v>95.3</v>
       </c>
       <c r="AA79" t="s">
         <v>31</v>
       </c>
       <c r="AB79">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
@@ -55032,8 +55035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D62D59-E7E2-0944-BCCD-FA474DE99E7C}">
   <dimension ref="A1:AB107"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56328,7 +56331,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T16" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U16" t="s">
         <v>31</v>
@@ -56417,7 +56420,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T17" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U17" t="s">
         <v>31</v>
@@ -56506,7 +56509,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T18" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U18" t="s">
         <v>31</v>
@@ -56595,7 +56598,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T19" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U19" t="s">
         <v>31</v>
@@ -56684,7 +56687,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T20" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U20" t="s">
         <v>31</v>
@@ -56773,7 +56776,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T21" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U21" t="s">
         <v>31</v>
@@ -56862,7 +56865,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T22" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U22" t="s">
         <v>31</v>
@@ -56951,7 +56954,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T23" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U23" t="s">
         <v>31</v>
@@ -57040,7 +57043,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T24" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U24" t="s">
         <v>31</v>
@@ -57129,7 +57132,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T25" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U25" t="s">
         <v>31</v>
@@ -57218,7 +57221,7 @@
         <v>42.716670000000001</v>
       </c>
       <c r="T26" s="13">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="U26" t="s">
         <v>31</v>
@@ -58984,8 +58987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1C3D3E-AE61-AC42-A3EA-51A6EE0189D9}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60275,10 +60278,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W16" t="s">
         <v>31</v>
@@ -60362,10 +60365,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W17" t="s">
         <v>31</v>
@@ -60449,10 +60452,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W18" t="s">
         <v>31</v>
@@ -60536,10 +60539,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W19" t="s">
         <v>31</v>
@@ -60623,10 +60626,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W20" t="s">
         <v>31</v>
@@ -60710,10 +60713,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W21" t="s">
         <v>31</v>
@@ -60797,10 +60800,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W22" t="s">
         <v>31</v>
@@ -60884,10 +60887,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W23" t="s">
         <v>31</v>
@@ -60971,10 +60974,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W24" t="s">
         <v>31</v>
@@ -61058,10 +61061,10 @@
         <v>-121.0218</v>
       </c>
       <c r="U25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W25" t="s">
         <v>31</v>
@@ -66233,11 +66236,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD0CD3-B1EE-8D4B-B397-0F32146A4A84}">
   <dimension ref="A1:T653"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E483" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I473" sqref="I473:I504"/>
+      <selection pane="bottomRight" activeCell="K62" sqref="K52:K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69286,8 +69289,8 @@
       <c r="J52" t="s">
         <v>31</v>
       </c>
-      <c r="K52" t="s">
-        <v>31</v>
+      <c r="K52" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="L52" t="s">
         <v>31</v>
@@ -69345,8 +69348,8 @@
       <c r="J53" t="s">
         <v>31</v>
       </c>
-      <c r="K53" t="s">
-        <v>31</v>
+      <c r="K53" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="L53" t="s">
         <v>31</v>
@@ -69404,8 +69407,8 @@
       <c r="J54" t="s">
         <v>31</v>
       </c>
-      <c r="K54" t="s">
-        <v>31</v>
+      <c r="K54" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="L54" t="s">
         <v>31</v>
@@ -69463,8 +69466,8 @@
       <c r="J55" t="s">
         <v>31</v>
       </c>
-      <c r="K55" t="s">
-        <v>31</v>
+      <c r="K55" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="L55" t="s">
         <v>31</v>
@@ -69522,8 +69525,8 @@
       <c r="J56" t="s">
         <v>31</v>
       </c>
-      <c r="K56" t="s">
-        <v>31</v>
+      <c r="K56" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="L56" t="s">
         <v>31</v>
@@ -69581,8 +69584,8 @@
       <c r="J57" t="s">
         <v>31</v>
       </c>
-      <c r="K57" t="s">
-        <v>31</v>
+      <c r="K57" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="L57" t="s">
         <v>31</v>
@@ -69640,8 +69643,8 @@
       <c r="J58" t="s">
         <v>31</v>
       </c>
-      <c r="K58" t="s">
-        <v>31</v>
+      <c r="K58" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="L58" t="s">
         <v>31</v>
@@ -69699,8 +69702,8 @@
       <c r="J59" t="s">
         <v>31</v>
       </c>
-      <c r="K59" t="s">
-        <v>31</v>
+      <c r="K59" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="L59" t="s">
         <v>31</v>
@@ -69758,8 +69761,8 @@
       <c r="J60" t="s">
         <v>31</v>
       </c>
-      <c r="K60" t="s">
-        <v>31</v>
+      <c r="K60" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="L60" t="s">
         <v>31</v>
@@ -69817,8 +69820,8 @@
       <c r="J61" t="s">
         <v>31</v>
       </c>
-      <c r="K61" t="s">
-        <v>31</v>
+      <c r="K61" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="L61" t="s">
         <v>31</v>
@@ -69889,16 +69892,16 @@
         <v>94</v>
       </c>
       <c r="O62">
-        <v>50.511940000000003</v>
+        <v>50.473109999999998</v>
       </c>
       <c r="P62">
-        <v>-120.97472</v>
+        <v>-121.0218</v>
       </c>
       <c r="Q62" t="s">
         <v>31</v>
       </c>
       <c r="R62">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
       <c r="S62" t="s">
         <v>173</v>
@@ -69948,16 +69951,16 @@
         <v>94</v>
       </c>
       <c r="O63">
-        <v>50.511940000000003</v>
+        <v>50.473109999999998</v>
       </c>
       <c r="P63">
-        <v>-120.97472</v>
+        <v>-121.0218</v>
       </c>
       <c r="Q63" t="s">
         <v>31</v>
       </c>
       <c r="R63">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
       <c r="S63" t="s">
         <v>173</v>
@@ -70007,16 +70010,16 @@
         <v>94</v>
       </c>
       <c r="O64">
-        <v>50.511940000000003</v>
+        <v>50.473109999999998</v>
       </c>
       <c r="P64">
-        <v>-120.97472</v>
+        <v>-121.0218</v>
       </c>
       <c r="Q64" t="s">
         <v>31</v>
       </c>
       <c r="R64">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
       <c r="S64" t="s">
         <v>173</v>
@@ -70066,16 +70069,16 @@
         <v>94</v>
       </c>
       <c r="O65">
-        <v>50.511940000000003</v>
+        <v>50.473109999999998</v>
       </c>
       <c r="P65">
-        <v>-120.97472</v>
+        <v>-121.0218</v>
       </c>
       <c r="Q65" t="s">
         <v>31</v>
       </c>
       <c r="R65">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
       <c r="S65" t="s">
         <v>173</v>
@@ -70125,16 +70128,16 @@
         <v>94</v>
       </c>
       <c r="O66">
-        <v>50.511940000000003</v>
+        <v>50.473109999999998</v>
       </c>
       <c r="P66">
-        <v>-120.97472</v>
+        <v>-121.0218</v>
       </c>
       <c r="Q66" t="s">
         <v>31</v>
       </c>
       <c r="R66">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
       <c r="S66" t="s">
         <v>173</v>
@@ -70184,16 +70187,16 @@
         <v>94</v>
       </c>
       <c r="O67">
-        <v>50.511940000000003</v>
+        <v>50.473109999999998</v>
       </c>
       <c r="P67">
-        <v>-120.97472</v>
+        <v>-121.0218</v>
       </c>
       <c r="Q67" t="s">
         <v>31</v>
       </c>
       <c r="R67">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
       <c r="S67" t="s">
         <v>173</v>
@@ -70243,16 +70246,16 @@
         <v>94</v>
       </c>
       <c r="O68">
-        <v>50.511940000000003</v>
+        <v>50.473109999999998</v>
       </c>
       <c r="P68">
-        <v>-120.97472</v>
+        <v>-121.0218</v>
       </c>
       <c r="Q68" t="s">
         <v>31</v>
       </c>
       <c r="R68">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
       <c r="S68" t="s">
         <v>173</v>
@@ -70302,16 +70305,16 @@
         <v>94</v>
       </c>
       <c r="O69">
-        <v>50.511940000000003</v>
+        <v>50.473109999999998</v>
       </c>
       <c r="P69">
-        <v>-120.97472</v>
+        <v>-121.0218</v>
       </c>
       <c r="Q69" t="s">
         <v>31</v>
       </c>
       <c r="R69">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
       <c r="S69" t="s">
         <v>173</v>
@@ -70361,16 +70364,16 @@
         <v>94</v>
       </c>
       <c r="O70">
-        <v>50.511940000000003</v>
+        <v>50.473109999999998</v>
       </c>
       <c r="P70">
-        <v>-120.97472</v>
+        <v>-121.0218</v>
       </c>
       <c r="Q70" t="s">
         <v>31</v>
       </c>
       <c r="R70">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
       <c r="S70" t="s">
         <v>173</v>
@@ -70420,16 +70423,16 @@
         <v>94</v>
       </c>
       <c r="O71">
-        <v>50.511940000000003</v>
+        <v>50.473109999999998</v>
       </c>
       <c r="P71">
-        <v>-120.97472</v>
+        <v>-121.0218</v>
       </c>
       <c r="Q71" t="s">
         <v>31</v>
       </c>
       <c r="R71">
-        <v>0.56010000000000004</v>
+        <v>0.46660000000000001</v>
       </c>
       <c r="S71" t="s">
         <v>173</v>
@@ -88696,7 +88699,7 @@
     </row>
     <row r="381" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A381">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -88705,7 +88708,7 @@
         <v>27</v>
       </c>
       <c r="D381">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E381">
         <v>224</v>
@@ -88732,7 +88735,7 @@
         <v>31</v>
       </c>
       <c r="M381" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="N381" t="s">
         <v>91</v>
@@ -93201,7 +93204,7 @@
         <v>10.7</v>
       </c>
       <c r="H457">
-        <v>37.4</v>
+        <v>95.3</v>
       </c>
       <c r="I457" t="s">
         <v>31</v>
@@ -93225,13 +93228,13 @@
         <v>42.716670000000001</v>
       </c>
       <c r="P457">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="Q457" t="s">
         <v>31</v>
       </c>
       <c r="R457">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="S457" t="s">
         <v>175</v>
@@ -93260,7 +93263,7 @@
         <v>10.7</v>
       </c>
       <c r="H458">
-        <v>37.4</v>
+        <v>95.3</v>
       </c>
       <c r="I458" t="s">
         <v>31</v>
@@ -93284,13 +93287,13 @@
         <v>42.716670000000001</v>
       </c>
       <c r="P458">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="Q458" t="s">
         <v>31</v>
       </c>
       <c r="R458">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="S458" t="s">
         <v>175</v>
@@ -93319,7 +93322,7 @@
         <v>10.7</v>
       </c>
       <c r="H459">
-        <v>37.4</v>
+        <v>95.3</v>
       </c>
       <c r="I459" t="s">
         <v>31</v>
@@ -93343,13 +93346,13 @@
         <v>42.716670000000001</v>
       </c>
       <c r="P459">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="Q459" t="s">
         <v>31</v>
       </c>
       <c r="R459">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="S459" t="s">
         <v>175</v>
@@ -93378,7 +93381,7 @@
         <v>10.7</v>
       </c>
       <c r="H460">
-        <v>37.4</v>
+        <v>95.3</v>
       </c>
       <c r="I460" t="s">
         <v>31</v>
@@ -93402,13 +93405,13 @@
         <v>42.716670000000001</v>
       </c>
       <c r="P460">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="Q460" t="s">
         <v>31</v>
       </c>
       <c r="R460">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="S460" t="s">
         <v>175</v>
@@ -93437,7 +93440,7 @@
         <v>10.7</v>
       </c>
       <c r="H461">
-        <v>37.4</v>
+        <v>95.3</v>
       </c>
       <c r="I461" t="s">
         <v>31</v>
@@ -93461,13 +93464,13 @@
         <v>42.716670000000001</v>
       </c>
       <c r="P461">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="Q461" t="s">
         <v>31</v>
       </c>
       <c r="R461">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="S461" t="s">
         <v>175</v>
@@ -93496,7 +93499,7 @@
         <v>10.7</v>
       </c>
       <c r="H462">
-        <v>37.4</v>
+        <v>95.3</v>
       </c>
       <c r="I462" t="s">
         <v>31</v>
@@ -93520,13 +93523,13 @@
         <v>42.716670000000001</v>
       </c>
       <c r="P462">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="Q462" t="s">
         <v>31</v>
       </c>
       <c r="R462">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="S462" t="s">
         <v>175</v>
@@ -93555,7 +93558,7 @@
         <v>10.7</v>
       </c>
       <c r="H463">
-        <v>37.4</v>
+        <v>95.3</v>
       </c>
       <c r="I463" t="s">
         <v>31</v>
@@ -93579,13 +93582,13 @@
         <v>42.716670000000001</v>
       </c>
       <c r="P463">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="Q463" t="s">
         <v>31</v>
       </c>
       <c r="R463">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="S463" t="s">
         <v>175</v>
@@ -93614,7 +93617,7 @@
         <v>10.7</v>
       </c>
       <c r="H464">
-        <v>37.4</v>
+        <v>95.3</v>
       </c>
       <c r="I464" t="s">
         <v>31</v>
@@ -93638,13 +93641,13 @@
         <v>42.716670000000001</v>
       </c>
       <c r="P464">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="Q464" t="s">
         <v>31</v>
       </c>
       <c r="R464">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="S464" t="s">
         <v>175</v>
@@ -93673,7 +93676,7 @@
         <v>10.7</v>
       </c>
       <c r="H465">
-        <v>37.4</v>
+        <v>95.3</v>
       </c>
       <c r="I465" t="s">
         <v>31</v>
@@ -93697,13 +93700,13 @@
         <v>42.716670000000001</v>
       </c>
       <c r="P465">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="Q465" t="s">
         <v>31</v>
       </c>
       <c r="R465">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="S465" t="s">
         <v>175</v>
@@ -93732,7 +93735,7 @@
         <v>10.7</v>
       </c>
       <c r="H466">
-        <v>37.4</v>
+        <v>95.3</v>
       </c>
       <c r="I466" t="s">
         <v>31</v>
@@ -93756,13 +93759,13 @@
         <v>42.716670000000001</v>
       </c>
       <c r="P466">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="Q466" t="s">
         <v>31</v>
       </c>
       <c r="R466">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="S466" t="s">
         <v>175</v>
@@ -93791,7 +93794,7 @@
         <v>10.7</v>
       </c>
       <c r="H467">
-        <v>37.4</v>
+        <v>95.3</v>
       </c>
       <c r="I467" t="s">
         <v>31</v>
@@ -93815,13 +93818,13 @@
         <v>42.716670000000001</v>
       </c>
       <c r="P467">
-        <v>1.2166699999999999</v>
+        <v>-1.2166699999999999</v>
       </c>
       <c r="Q467" t="s">
         <v>31</v>
       </c>
       <c r="R467">
-        <v>1.6335</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="S467" t="s">
         <v>175</v>
